--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\GITHUB\orange\orange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\Documents\Proyecto_Orange\orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10CAEA1-207E-434D-A031-8F2CA54A692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93CF91-AC39-48DC-8D21-F102C068395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{8161AF66-248D-4934-A7C2-963351DA0FBB}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{8161AF66-248D-4934-A7C2-963351DA0FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="396">
   <si>
     <t>Sensing</t>
   </si>
@@ -1226,6 +1226,9 @@
   <si>
     <t>Age of the company (segment)</t>
   </si>
+  <si>
+    <t>Company_number</t>
+  </si>
 </sst>
 </file>
 
@@ -2053,6 +2056,12 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2061,12 +2070,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2403,25 +2406,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4030133B-493B-4046-AB1C-A6AF354DB9CD}">
   <dimension ref="A1:JM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="29.46484375" customWidth="1"/>
-    <col min="12" max="12" width="13.46484375" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
     <col min="16" max="27" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3232,7 +3235,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3999,7 +4002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:273" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:273" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4766,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:273" ht="60.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:273" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5533,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:273" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:273" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -6300,7 +6303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:273" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:273" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -7067,7 +7070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:273" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:273" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -7083,18 +7086,18 @@
       <c r="M7" s="68"/>
       <c r="N7" s="68"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="183"/>
       <c r="AB7" s="71" t="s">
         <v>16</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:273" ht="182.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:273" ht="183.6" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8601,11 +8604,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:273" ht="141.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="182" t="s">
+    <row r="9" spans="1:273" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="182"/>
+      <c r="B9" s="178" t="s">
+        <v>395</v>
+      </c>
       <c r="C9" s="99" t="s">
         <v>48</v>
       </c>
@@ -8624,7 +8629,7 @@
       <c r="H9" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="179" t="s">
         <v>394</v>
       </c>
       <c r="J9" s="102" t="s">
@@ -9420,7 +9425,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>262</v>
       </c>
@@ -10241,7 +10246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>262</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A12" s="135" t="s">
         <v>273</v>
       </c>
@@ -11883,7 +11888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
         <v>273</v>
       </c>
@@ -12704,7 +12709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A14" s="160" t="s">
         <v>281</v>
       </c>
@@ -13525,7 +13530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A15" s="160" t="s">
         <v>281</v>
       </c>
@@ -14346,7 +14351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A16" s="135" t="s">
         <v>286</v>
       </c>
@@ -15167,7 +15172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A17" s="135" t="s">
         <v>286</v>
       </c>
@@ -15988,7 +15993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A18" s="160" t="s">
         <v>294</v>
       </c>
@@ -16809,7 +16814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A19" s="160" t="s">
         <v>294</v>
       </c>
@@ -17630,7 +17635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A20" s="135" t="s">
         <v>299</v>
       </c>
@@ -18451,7 +18456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A21" s="135" t="s">
         <v>299</v>
       </c>
@@ -19272,7 +19277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A22" s="110" t="s">
         <v>304</v>
       </c>
@@ -20093,7 +20098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A23" s="110" t="s">
         <v>304</v>
       </c>
@@ -20914,7 +20919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A24" s="135" t="s">
         <v>309</v>
       </c>
@@ -21735,7 +21740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A25" s="135" t="s">
         <v>309</v>
       </c>
@@ -22556,7 +22561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A26" s="160" t="s">
         <v>315</v>
       </c>
@@ -23377,7 +23382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
         <v>315</v>
       </c>
@@ -24198,7 +24203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A28" s="135" t="s">
         <v>321</v>
       </c>
@@ -25019,7 +25024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A29" s="135" t="s">
         <v>321</v>
       </c>
@@ -25840,7 +25845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A30" s="160" t="s">
         <v>325</v>
       </c>
@@ -26661,7 +26666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A31" s="160" t="s">
         <v>325</v>
       </c>
@@ -27482,7 +27487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A32" s="135" t="s">
         <v>330</v>
       </c>
@@ -28303,7 +28308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A33" s="135" t="s">
         <v>330</v>
       </c>
@@ -29124,7 +29129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A34" s="110" t="s">
         <v>333</v>
       </c>
@@ -29945,7 +29950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A35" s="110" t="s">
         <v>333</v>
       </c>
@@ -30766,7 +30771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A36" s="135" t="s">
         <v>337</v>
       </c>
@@ -31587,7 +31592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A37" s="135" t="s">
         <v>337</v>
       </c>
@@ -32408,7 +32413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
         <v>340</v>
       </c>
@@ -33229,7 +33234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A39" s="160" t="s">
         <v>340</v>
       </c>
@@ -34050,7 +34055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A40" s="135" t="s">
         <v>344</v>
       </c>
@@ -34871,7 +34876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A41" s="135" t="s">
         <v>344</v>
       </c>
@@ -35692,7 +35697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A42" s="160" t="s">
         <v>348</v>
       </c>
@@ -36513,7 +36518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A43" s="160" t="s">
         <v>348</v>
       </c>
@@ -37334,7 +37339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A44" s="135" t="s">
         <v>352</v>
       </c>
@@ -38155,7 +38160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A45" s="135" t="s">
         <v>352</v>
       </c>
@@ -38976,7 +38981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A46" s="110" t="s">
         <v>356</v>
       </c>
@@ -39797,7 +39802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A47" s="110" t="s">
         <v>356</v>
       </c>
@@ -40618,7 +40623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A48" s="135" t="s">
         <v>360</v>
       </c>
@@ -41439,7 +41444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A49" s="135" t="s">
         <v>360</v>
       </c>
@@ -42260,7 +42265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A50" s="160" t="s">
         <v>363</v>
       </c>
@@ -43081,7 +43086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A51" s="160" t="s">
         <v>363</v>
       </c>
@@ -43902,7 +43907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A52" s="135" t="s">
         <v>366</v>
       </c>
@@ -44723,7 +44728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A53" s="135" t="s">
         <v>366</v>
       </c>
@@ -45544,7 +45549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A54" s="110" t="s">
         <v>371</v>
       </c>
@@ -46365,7 +46370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A55" s="110" t="s">
         <v>371</v>
       </c>
@@ -47186,7 +47191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A56" s="135" t="s">
         <v>374</v>
       </c>
@@ -48007,7 +48012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A57" s="135" t="s">
         <v>374</v>
       </c>
@@ -48828,7 +48833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A58" s="160" t="s">
         <v>377</v>
       </c>
@@ -49649,7 +49654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A59" s="160" t="s">
         <v>377</v>
       </c>
@@ -50470,7 +50475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A60" s="135" t="s">
         <v>381</v>
       </c>
@@ -51291,7 +51296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A61" s="135" t="s">
         <v>381</v>
       </c>
@@ -52112,7 +52117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A62" s="160" t="s">
         <v>386</v>
       </c>
@@ -52933,7 +52938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A63" s="160" t="s">
         <v>386</v>
       </c>
@@ -53754,7 +53759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A64" s="135" t="s">
         <v>390</v>
       </c>
@@ -54575,7 +54580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:273" x14ac:dyDescent="0.3">
       <c r="A65" s="135" t="s">
         <v>390</v>
       </c>
@@ -55396,7 +55401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:273" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B66" s="173"/>
       <c r="C66" s="165"/>
       <c r="D66" s="165"/>
@@ -55671,11 +55676,10 @@
       <c r="JM66" s="177"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="S7:W7"/>
     <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
